--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_5_backlog_actividades_horas.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/sprint_5_backlog_actividades_horas.xlsx
@@ -197,7 +197,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -463,7 +463,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="6">
         <f>SUM(D7:D29)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" ht="27.0" customHeight="1">
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="13">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9" ht="27.0" customHeight="1">
@@ -566,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="13">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="13" ht="27.0" customHeight="1">
@@ -580,7 +580,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="13">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14" ht="27.0" customHeight="1">
